--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/61.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/61.xlsx
@@ -479,13 +479,13 @@
         <v>-17.77333271878869</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.188573617247698</v>
+        <v>-9.125442532944895</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.761912461067219</v>
+        <v>-1.73407822522571</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.937014927092895</v>
+        <v>-7.810922958424231</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-17.00754690530196</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.827687472769398</v>
+        <v>-9.775344446008177</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.761428045862076</v>
+        <v>-1.741763406993803</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.750711457655133</v>
+        <v>-7.656276677257763</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-16.16025658507687</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.39455800121045</v>
+        <v>-10.32664822637042</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.764936783023658</v>
+        <v>-1.742012160747796</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.553358084618955</v>
+        <v>-7.460311088322807</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-15.29563354094418</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.0347847024737</v>
+        <v>-10.97221658719309</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.760498492360313</v>
+        <v>-1.741423007119918</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.11847106112534</v>
+        <v>-7.034968353600811</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-14.41546287776389</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.67103134367306</v>
+        <v>-11.59289648031364</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.813888903348872</v>
+        <v>-1.794813418108477</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.864729139749847</v>
+        <v>-6.784997015443735</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-13.55278754128313</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.46316803480886</v>
+        <v>-12.38943218520425</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.607698225894528</v>
+        <v>-1.583451281031651</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.482682650525438</v>
+        <v>-6.406040309689974</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-12.72458142561378</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.10683801171948</v>
+        <v>-13.03078482451189</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.511090123225431</v>
+        <v>-1.488741562274605</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.84138238042917</v>
+        <v>-5.747418922934102</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-11.94778461125062</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.72483398275747</v>
+        <v>-13.64601831965028</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.404296208945472</v>
+        <v>-1.377875941810869</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.420779059335879</v>
+        <v>-5.345485225693112</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-11.23060558284281</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.36651392963615</v>
+        <v>-14.28213403782123</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.324629546153569</v>
+        <v>-1.300853924192994</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.036205755663017</v>
+        <v>-4.949587080062157</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-10.58191926735826</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.20956658652342</v>
+        <v>-15.1254092638568</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.19879942354174</v>
+        <v>-1.183926567513539</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.472974887411961</v>
+        <v>-4.3858848889088</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-10.00769526262986</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.98156731588864</v>
+        <v>-15.9016388070399</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9640020643782242</v>
+        <v>-0.9453586251316063</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.935483486547739</v>
+        <v>-3.858919699529325</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-9.505540185287646</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.74831803181432</v>
+        <v>-16.66679226201889</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8708241450536598</v>
+        <v>-0.854039812810567</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.457260940648011</v>
+        <v>-3.387387320381719</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-9.091607663596896</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.46804119593253</v>
+        <v>-17.39401731566541</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6945886565011852</v>
+        <v>-0.6728816183896034</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.894422841482208</v>
+        <v>-2.815436978438075</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-8.771609537028315</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.24488607734919</v>
+        <v>-18.16278424622872</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.5061118647916967</v>
+        <v>-0.4882539637155823</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.611707653917975</v>
+        <v>-2.53354660595287</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-8.548762778674899</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.11459466282221</v>
+        <v>-19.03092175536074</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3409655567461641</v>
+        <v>-0.3251762395190425</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.055101490904833</v>
+        <v>-1.969661122559729</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-8.423693199812059</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.93810051156678</v>
+        <v>-19.86004420202441</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.09526230931549096</v>
+        <v>-0.08235329871354904</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.779573977600708</v>
+        <v>-1.697956561685388</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-8.39387047807201</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.69031877133815</v>
+        <v>-20.60258724999574</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02305283146518753</v>
+        <v>0.02726855298022332</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.342317247292741</v>
+        <v>-1.25842177068296</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-8.452064910250183</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.42418162252542</v>
+        <v>-21.32583224357838</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2910784552410036</v>
+        <v>0.3012773591547082</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.9643424642521091</v>
+        <v>-0.8768727889665372</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-8.583830475041147</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.05397375842381</v>
+        <v>-21.96304771518803</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4402128769111052</v>
+        <v>0.4513806112350976</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.732451596319457</v>
+        <v>-0.6461078590782735</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-8.786300755772791</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.67151149886235</v>
+        <v>-22.58129243998001</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6279172227529318</v>
+        <v>0.6383517881177876</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.4034289336040391</v>
+        <v>-0.3083788149731079</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-9.046837650608648</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.12768660677661</v>
+        <v>-23.03546442555949</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8013640508001189</v>
+        <v>0.807857833009615</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.2831761320027852</v>
+        <v>-0.1922108118584725</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-9.351741970400642</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.56847825885184</v>
+        <v>-23.47753912331321</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8873804804702591</v>
+        <v>0.8903917101238561</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1505511042161001</v>
+        <v>-0.05008077220869429</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-9.686921857346823</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.04827188109258</v>
+        <v>-23.96552852713287</v>
       </c>
       <c r="F24" t="n">
-        <v>1.034825995073778</v>
+        <v>1.035624625547123</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1654501448499844</v>
+        <v>-0.08967189600207393</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-10.03878182181193</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.29337288259253</v>
+        <v>-24.21505472699333</v>
       </c>
       <c r="F25" t="n">
-        <v>1.087941467702661</v>
+        <v>1.090127882277229</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01399295789871309</v>
+        <v>0.1015935562127022</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-10.39105063366096</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.56711984271018</v>
+        <v>-24.48330291991745</v>
       </c>
       <c r="F26" t="n">
-        <v>1.224310894102079</v>
+        <v>1.227034093093158</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.08649046641153449</v>
+        <v>-0.000644236678336657</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-10.73038474478605</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.61359751779831</v>
+        <v>-24.5337737473723</v>
       </c>
       <c r="F27" t="n">
-        <v>1.191972906083016</v>
+        <v>1.195363812519023</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.2859386079023894</v>
+        <v>-0.2013099623334721</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-11.05121080350255</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.70033402412474</v>
+        <v>-24.61688368581158</v>
       </c>
       <c r="F28" t="n">
-        <v>1.121889808971256</v>
+        <v>1.123945300517407</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.6368646932720149</v>
+        <v>-0.5557971540760471</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-11.3443720141329</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.51742146112299</v>
+        <v>-24.42881275549019</v>
       </c>
       <c r="F29" t="n">
-        <v>1.129247683168306</v>
+        <v>1.138229002917731</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.6771628014188478</v>
+        <v>-0.6051027665779874</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-11.6017217111285</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.25467203539239</v>
+        <v>-24.16862942111657</v>
       </c>
       <c r="F30" t="n">
-        <v>1.016470586489678</v>
+        <v>1.025386444724893</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9950700990216401</v>
+        <v>-0.9225780181870029</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-11.81657982079864</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.03783731572772</v>
+        <v>-23.94640067268111</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9454579358761559</v>
+        <v>0.9565340240802562</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.19675702429843</v>
+        <v>-1.13743580012257</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-11.98368488531038</v>
       </c>
       <c r="E32" t="n">
-        <v>-23.68949041401792</v>
+        <v>-23.60022709324303</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9249161127174877</v>
+        <v>0.9330857096907248</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.443900425041693</v>
+        <v>-1.38395077032943</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-12.09427196835482</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.35934181325811</v>
+        <v>-23.26675304756142</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8854166350440001</v>
+        <v>0.8966105539736759</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.717123693045675</v>
+        <v>-1.663275051457655</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-12.15051388167675</v>
       </c>
       <c r="E34" t="n">
-        <v>-22.91831449973172</v>
+        <v>-22.81673132198277</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8286091330137508</v>
+        <v>0.8332176236140384</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.944419162680881</v>
+        <v>-1.901384763240127</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-12.15672287288893</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.54844385215012</v>
+        <v>-22.45554087118524</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7437971952050493</v>
+        <v>0.7512598078248331</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.201748375035007</v>
+        <v>-2.178928491181878</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-12.11646038529616</v>
       </c>
       <c r="E36" t="n">
-        <v>-21.98341933840975</v>
+        <v>-21.88387855990411</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7901963164761265</v>
+        <v>0.7989288824715578</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.484437377993556</v>
+        <v>-2.476621273197046</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-12.03518003056168</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.54059837939405</v>
+        <v>-21.43603015659718</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8056321415265215</v>
+        <v>0.8166558605192549</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.668986478850527</v>
+        <v>-2.659389820867541</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-11.91944826998712</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.05221620648914</v>
+        <v>-20.95166732066469</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9023057057098268</v>
+        <v>0.912334409686589</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.802423229413399</v>
+        <v>-2.790915095215521</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-11.77632626376469</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.57130973850686</v>
+        <v>-20.46278764025179</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9200195914546822</v>
+        <v>0.9316848332866601</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.8485474123248</v>
+        <v>-2.848534320021958</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-11.60637953633897</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.91741467307685</v>
+        <v>-19.80533146844883</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9432191520902208</v>
+        <v>0.951716056634501</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.961101939855119</v>
+        <v>-2.967818291212924</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-11.42533575866586</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.38233225593551</v>
+        <v>-19.26986937452508</v>
       </c>
       <c r="F41" t="n">
-        <v>1.015305371536765</v>
+        <v>1.023985568320829</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.112763175973674</v>
+        <v>-3.123237018247054</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-11.24159451893667</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.61869750808615</v>
+        <v>-18.51042416358507</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9944231485042114</v>
+        <v>1.000524161628456</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.326547389076218</v>
+        <v>-3.338081707879779</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-11.0615866058876</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.10647425170646</v>
+        <v>-17.99088230991686</v>
       </c>
       <c r="F43" t="n">
-        <v>1.091790604738128</v>
+        <v>1.104882907579854</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.369228296340245</v>
+        <v>-3.376062478423627</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-10.89004230833728</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.5389098312148</v>
+        <v>-17.43092451737624</v>
       </c>
       <c r="F44" t="n">
-        <v>1.059230047570755</v>
+        <v>1.058758724668453</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.524856500219843</v>
+        <v>-3.525694407601714</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-10.73005566572384</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.90409025102518</v>
+        <v>-16.78437423384044</v>
       </c>
       <c r="F45" t="n">
-        <v>1.068970720885</v>
+        <v>1.075975102905323</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.694558929654296</v>
+        <v>-3.701838250034296</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-10.58098529734772</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.42949427301261</v>
+        <v>-16.30907127147441</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9140364090560134</v>
+        <v>0.9060108274140353</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.849231395426448</v>
+        <v>-3.862101129119865</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-10.43922514440055</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.82334683604638</v>
+        <v>-15.71152547747519</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9860702592911902</v>
+        <v>0.9824044144955069</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.841310552207204</v>
+        <v>-3.839896583500297</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-10.31055656635559</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.20155409718428</v>
+        <v>-15.07091909942954</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9597023613679539</v>
+        <v>0.9628052371414429</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.994071541764464</v>
+        <v>-3.986595836841838</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-10.19263613393253</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.68648981108793</v>
+        <v>-14.56309485680467</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8893574181993598</v>
+        <v>0.8840943124569859</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.092970797430862</v>
+        <v>-4.09166156714669</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-10.08205671906899</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.16383198934339</v>
+        <v>-14.04340898780519</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8863069116372375</v>
+        <v>0.8779802070298998</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.184394348174636</v>
+        <v>-4.170843814733449</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-9.974238299530761</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.67948224571373</v>
+        <v>-13.56449254985485</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9921189032040676</v>
+        <v>0.9881126585344995</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.286972540939559</v>
+        <v>-4.2664961792951</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-9.864418768582915</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.06452368893502</v>
+        <v>-12.93352210670071</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8901429563698633</v>
+        <v>0.8798262217305831</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.397811976797612</v>
+        <v>-4.37329009357506</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-9.74414837027469</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.6502832270228</v>
+        <v>-12.52924488725105</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9015987213563736</v>
+        <v>0.8917533096193956</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.593476442767209</v>
+        <v>-4.564843576452353</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-9.610854090621721</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.03816569996074</v>
+        <v>-11.90366847286769</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8722588706880655</v>
+        <v>0.8670612264599002</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.759591581223028</v>
+        <v>-4.742021710809432</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-9.466458174672939</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.65065972045134</v>
+        <v>-11.5205615071131</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8276010256949379</v>
+        <v>0.8266976567988588</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.978141392559962</v>
+        <v>-4.959746707067337</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-9.310320476756601</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.27032832289919</v>
+        <v>-11.14005990962402</v>
       </c>
       <c r="F56" t="n">
-        <v>0.7549125603176747</v>
+        <v>0.7513121770362001</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.189359514305528</v>
+        <v>-5.163750969947112</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-9.142956016614788</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.71749274310447</v>
+        <v>-10.58464514616947</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7332578914174598</v>
+        <v>0.7318177381048699</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.26711470088254</v>
+        <v>-5.24329980201344</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.966411808878933</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.47516730980696</v>
+        <v>-10.34874803356725</v>
       </c>
       <c r="F58" t="n">
-        <v>0.6567595659132545</v>
+        <v>0.649611168561672</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.417505983625447</v>
+        <v>-5.388231594471348</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.783807964913509</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.966492067497379</v>
+        <v>-9.841565313781627</v>
       </c>
       <c r="F59" t="n">
-        <v>0.6832322022592245</v>
+        <v>0.6774846813117068</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.636304548716373</v>
+        <v>-5.604529529719504</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.594254402303992</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.8225421977526</v>
+        <v>-9.707343025048253</v>
       </c>
       <c r="F60" t="n">
-        <v>0.6719335449068149</v>
+        <v>0.6619964870499448</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.695154449989932</v>
+        <v>-5.66275100045666</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.407613096397508</v>
       </c>
       <c r="E61" t="n">
-        <v>-9.441516908149847</v>
+        <v>-9.33035016472075</v>
       </c>
       <c r="F61" t="n">
-        <v>0.7110795304035759</v>
+        <v>0.6970053048487204</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.708639521916909</v>
+        <v>-5.673460504181191</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.231193354861889</v>
       </c>
       <c r="E62" t="n">
-        <v>-9.165203856675218</v>
+        <v>-9.056616296905942</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6739104826359156</v>
+        <v>0.6584746575855205</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.814739544146257</v>
+        <v>-5.764661485776656</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.070418546318772</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.860022277434583</v>
+        <v>-8.735972708009228</v>
       </c>
       <c r="F63" t="n">
-        <v>0.6357071429437589</v>
+        <v>0.6191584721518172</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.805378547614423</v>
+        <v>-5.757159596248346</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.92999909053724</v>
       </c>
       <c r="E64" t="n">
-        <v>-8.559148065828875</v>
+        <v>-8.430175790535033</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5347916726397344</v>
+        <v>0.516213694907325</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.739602818137592</v>
+        <v>-5.686932483805328</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.813716088579759</v>
       </c>
       <c r="E65" t="n">
-        <v>-8.4378216953946</v>
+        <v>-8.316547694171692</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3996267381017544</v>
+        <v>0.377566207813446</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.762671455744713</v>
+        <v>-5.706950614850327</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.723691825294405</v>
       </c>
       <c r="E66" t="n">
-        <v>-8.242484536996047</v>
+        <v>-8.118238583028067</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3532668937392024</v>
+        <v>0.3327643474890594</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.752930782430469</v>
+        <v>-5.692365789484644</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-7.655838968841555</v>
       </c>
       <c r="E67" t="n">
-        <v>-8.109217986370117</v>
+        <v>-7.988205831204044</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2634667885478033</v>
+        <v>0.2395209666502863</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.70757904538673</v>
+        <v>-5.64545606840274</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-7.617025306450749</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.971382222052426</v>
+        <v>-7.8445178075161</v>
       </c>
       <c r="F68" t="n">
-        <v>0.2070782402084891</v>
+        <v>0.1843107255667275</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.657802109982487</v>
+        <v>-5.593374887698353</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-7.606950605023556</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.911419475037321</v>
+        <v>-7.777589955389197</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1976779667681298</v>
+        <v>0.1776729280259724</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.57363169501303</v>
+        <v>-5.505996858532674</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-7.624275834087477</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.92119942526009</v>
+        <v>-7.78603449072211</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09310974397126372</v>
+        <v>0.07184784415630058</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.466327180922243</v>
+        <v>-5.404714803749081</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-7.666776003195262</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.981463295240555</v>
+        <v>-7.855515341903151</v>
       </c>
       <c r="F71" t="n">
-        <v>0.09363343608493276</v>
+        <v>0.07378550497687604</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.295040582843941</v>
+        <v>-5.23594192781639</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-7.731645975681945</v>
       </c>
       <c r="E72" t="n">
-        <v>-8.006351762942677</v>
+        <v>-7.869655028972215</v>
       </c>
       <c r="F72" t="n">
-        <v>0.01501415752036772</v>
+        <v>-0.002306959139235868</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.20537140068096</v>
+        <v>-5.152295204960602</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-7.813762661470149</v>
       </c>
       <c r="E73" t="n">
-        <v>-8.209125349355329</v>
+        <v>-8.080886243020624</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.02496973535826369</v>
+        <v>-0.03889994558186022</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.93769926908187</v>
+        <v>-4.88415175045921</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-7.907337468414076</v>
       </c>
       <c r="E74" t="n">
-        <v>-8.341488531085179</v>
+        <v>-8.210159641279827</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.06772919643934103</v>
+        <v>-0.09229035657041913</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.806370379276516</v>
+        <v>-4.751880214849252</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-8.014991990982768</v>
       </c>
       <c r="E75" t="n">
-        <v>-8.671833516387613</v>
+        <v>-8.550127469170928</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.1588516242177545</v>
+        <v>-0.1749551567130775</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.556948917838793</v>
+        <v>-4.507368366977176</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-8.134877122498921</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.934033065398861</v>
+        <v>-8.809656188402462</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.1454189215021435</v>
+        <v>-0.1660000215693369</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.252552876768662</v>
+        <v>-4.215737321177728</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-8.265909707726792</v>
       </c>
       <c r="E77" t="n">
-        <v>-9.447041859949055</v>
+        <v>-9.32633082774834</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.2225980467541187</v>
+        <v>-0.2382695332556648</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.037668910227412</v>
+        <v>-3.993547849650795</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-8.407667198071273</v>
       </c>
       <c r="E78" t="n">
-        <v>-9.900271199723928</v>
+        <v>-9.780057675031198</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.1766571560825019</v>
+        <v>-0.1868036907848396</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.940301453993495</v>
+        <v>-3.902032652787129</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-8.560303507925626</v>
       </c>
       <c r="E79" t="n">
-        <v>-10.33686022258697</v>
+        <v>-10.2216872344883</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.2427732854332185</v>
+        <v>-0.2545301733850886</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.787448818316343</v>
+        <v>-3.75374923080174</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-8.719996689324136</v>
       </c>
       <c r="E80" t="n">
-        <v>-10.93718158478863</v>
+        <v>-10.81842130571133</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.2985072186304464</v>
+        <v>-0.3079991381906979</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.459185509165745</v>
+        <v>-3.425106244868732</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-8.887618527024575</v>
       </c>
       <c r="E81" t="n">
-        <v>-11.62463222240198</v>
+        <v>-11.50081831442778</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.3173077655111651</v>
+        <v>-0.3247441935252655</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.302863413235536</v>
+        <v>-3.265524165530933</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-9.067107420092373</v>
       </c>
       <c r="E82" t="n">
-        <v>-12.46126965089681</v>
+        <v>-12.34380550980084</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.3860161708245435</v>
+        <v>-0.3902188000367375</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.962070770265406</v>
+        <v>-2.926603721867171</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-9.258936077761977</v>
       </c>
       <c r="E83" t="n">
-        <v>-13.37710241928123</v>
+        <v>-13.26069875471544</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.3679357006001198</v>
+        <v>-0.368498669622314</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.808615888657535</v>
+        <v>-2.780231776096673</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-9.46344291269773</v>
       </c>
       <c r="E84" t="n">
-        <v>-14.33633617158597</v>
+        <v>-14.21091191036223</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.4198204967618802</v>
+        <v>-0.4230412032609448</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.537618312136647</v>
+        <v>-2.504953016546541</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-9.680557302194879</v>
       </c>
       <c r="E85" t="n">
-        <v>-15.55500699700236</v>
+        <v>-15.43345805741977</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.4795213977201511</v>
+        <v>-0.4751092916624894</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.340762446608454</v>
+        <v>-2.306224951711981</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-9.909630612081274</v>
       </c>
       <c r="E86" t="n">
-        <v>-16.61540497336512</v>
+        <v>-16.4969196326475</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5751083007675931</v>
+        <v>-0.5706961947099314</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.107117210095011</v>
+        <v>-2.066046656080516</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-10.14257333037863</v>
       </c>
       <c r="E87" t="n">
-        <v>-17.79756136615593</v>
+        <v>-17.67071004392245</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.5037945271887112</v>
+        <v>-0.5011891589232077</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.044784756265553</v>
+        <v>-2.005678047677317</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-10.38320721656723</v>
       </c>
       <c r="E88" t="n">
-        <v>-19.16743519709141</v>
+        <v>-19.04563750375484</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6593049003427335</v>
+        <v>-0.6559925477237767</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.015078321117676</v>
+        <v>-1.975971612529441</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-10.63248522618185</v>
       </c>
       <c r="E89" t="n">
-        <v>-20.70563676566297</v>
+        <v>-20.57925676633179</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6402032304966551</v>
+        <v>-0.6386976156698566</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.001279033922497</v>
+        <v>-1.962722202053614</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-10.88971621096898</v>
       </c>
       <c r="E90" t="n">
-        <v>-22.34428248163625</v>
+        <v>-22.21538876015945</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6862357672881639</v>
+        <v>-0.6770711552989557</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.013625075502245</v>
+        <v>-1.974871859090736</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-11.15408994017942</v>
       </c>
       <c r="E91" t="n">
-        <v>-24.0532993253838</v>
+        <v>-23.92626471091053</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8232205319211437</v>
+        <v>-0.8200652869362878</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.051618938348934</v>
+        <v>-2.016099520739331</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-11.4244519939771</v>
       </c>
       <c r="E92" t="n">
-        <v>-25.79253320409006</v>
+        <v>-25.6628670367456</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8730498365367532</v>
+        <v>-0.8679831153370052</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.120563005113463</v>
+        <v>-2.079872127881379</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-11.6984127530167</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.82224600594569</v>
+        <v>-27.68522196440419</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.046143172407214</v>
+        <v>-1.041757250955235</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.310100273353132</v>
+        <v>-2.272944317888313</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-11.96577507962442</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.86982980118028</v>
+        <v>-29.73712621957655</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.075273546230054</v>
+        <v>-1.069237994620018</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.373362280684352</v>
+        <v>-2.338104709131584</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-12.23271998458532</v>
       </c>
       <c r="E95" t="n">
-        <v>-32.07295015417458</v>
+        <v>-31.93815180411617</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.321199362809037</v>
+        <v>-1.305802814667167</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.585981278833983</v>
+        <v>-2.550514230435748</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-12.49843127206648</v>
       </c>
       <c r="E96" t="n">
-        <v>-34.33276017847355</v>
+        <v>-34.19953290475615</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.446047562707736</v>
+        <v>-1.434434690087125</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.80197809111678</v>
+        <v>-2.768566534264695</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-12.75907896334366</v>
       </c>
       <c r="E97" t="n">
-        <v>-36.54511060497126</v>
+        <v>-36.4135591460176</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.611220055358952</v>
+        <v>-1.608235010311039</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.896439056119834</v>
+        <v>-2.85386288727854</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-13.01521066950302</v>
       </c>
       <c r="E98" t="n">
-        <v>-38.87764837155602</v>
+        <v>-38.74882011159343</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.877687695096603</v>
+        <v>-1.877596048976711</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.150534469672053</v>
+        <v>-3.113993852440796</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-13.25855486851947</v>
       </c>
       <c r="E99" t="n">
-        <v>-41.18015239542186</v>
+        <v>-41.05564459539704</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.889745706013833</v>
+        <v>-1.892717658758905</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.378379816026612</v>
+        <v>-3.359186500060642</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-13.4900189654842</v>
       </c>
       <c r="E100" t="n">
-        <v>-43.51504677651813</v>
+        <v>-43.3872397161772</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.221282090874862</v>
+        <v>-2.228587595860545</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.46210509269945</v>
+        <v>-3.420104985183193</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-13.69157117234029</v>
       </c>
       <c r="E101" t="n">
-        <v>-45.84420672896972</v>
+        <v>-45.72476565014465</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.265468612965687</v>
+        <v>-2.269186826972738</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.716763475273864</v>
+        <v>-3.681793934383613</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-13.88661226947186</v>
       </c>
       <c r="E102" t="n">
-        <v>-48.37375746871677</v>
+        <v>-48.26179209481433</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.524486732386396</v>
+        <v>-2.535824666647331</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.764301626892171</v>
+        <v>-3.715375691172641</v>
       </c>
     </row>
   </sheetData>
